--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Levy.Fall.111220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Levy.Fall.111220.xlsx_with_dialog_acts.xlsx
@@ -601,12 +601,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1483,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1819,12 +1819,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2533,12 +2533,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2741,12 +2741,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2825,12 +2825,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2867,12 +2867,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2909,12 +2909,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3035,12 +3035,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3203,12 +3203,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3371,12 +3371,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3581,12 +3581,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3833,12 +3833,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4043,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4253,12 +4253,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4463,12 +4463,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4673,12 +4673,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5223,12 +5223,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5853,12 +5853,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6021,12 +6021,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6231,12 +6231,12 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6481,12 +6481,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6607,12 +6607,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6817,12 +6817,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6859,12 +6859,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7067,12 +7067,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7109,12 +7109,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7151,12 +7151,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7403,12 +7403,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7487,12 +7487,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7697,12 +7697,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7865,12 +7865,12 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7991,12 +7991,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8285,12 +8285,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8327,12 +8327,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8579,12 +8579,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8621,12 +8621,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8663,12 +8663,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8705,12 +8705,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8831,12 +8831,12 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8999,12 +8999,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9963,12 +9963,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10383,12 +10383,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10425,12 +10425,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10551,12 +10551,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10593,12 +10593,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10635,12 +10635,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10803,12 +10803,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11311,12 +11311,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11353,12 +11353,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11563,12 +11563,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11773,12 +11773,12 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11857,12 +11857,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12617,12 +12617,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12869,12 +12869,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12995,12 +12995,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13331,12 +13331,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13709,12 +13709,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14171,12 +14171,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14595,12 +14595,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14637,12 +14637,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14847,12 +14847,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14973,12 +14973,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15309,12 +15309,12 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15771,12 +15771,12 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15813,12 +15813,12 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16149,12 +16149,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16275,12 +16275,12 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16317,12 +16317,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16527,12 +16527,12 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16779,12 +16779,12 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17451,12 +17451,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17575,12 +17575,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17895,12 +17895,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18175,12 +18175,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18215,12 +18215,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18451,12 +18451,12 @@
       <c r="H430" t="inlineStr"/>
       <c r="I430" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18491,12 +18491,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18611,12 +18611,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18651,12 +18651,12 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18891,12 +18891,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19009,12 +19009,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19521,12 +19521,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19561,12 +19561,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19681,12 +19681,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19801,12 +19801,12 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19881,12 +19881,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20041,12 +20041,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20161,12 +20161,12 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20281,12 +20281,12 @@
       <c r="H476" t="inlineStr"/>
       <c r="I476" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20321,12 +20321,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20361,12 +20361,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20641,12 +20641,12 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20681,12 +20681,12 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20801,12 +20801,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21121,12 +21121,12 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21161,12 +21161,12 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21401,12 +21401,12 @@
       <c r="H504" t="inlineStr"/>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21441,12 +21441,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21521,12 +21521,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21921,12 +21921,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21961,12 +21961,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22001,12 +22001,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22243,12 +22243,12 @@
       <c r="H525" t="inlineStr"/>
       <c r="I525" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22439,12 +22439,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22835,12 +22835,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23235,12 +23235,12 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23315,12 +23315,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23479,12 +23479,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23999,12 +23999,12 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24799,12 +24799,12 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -24839,12 +24839,12 @@
       <c r="H590" t="inlineStr"/>
       <c r="I590" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24919,12 +24919,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24959,12 +24959,12 @@
       <c r="H593" t="inlineStr"/>
       <c r="I593" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25119,12 +25119,12 @@
       <c r="H597" t="inlineStr"/>
       <c r="I597" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25279,12 +25279,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25679,12 +25679,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25719,12 +25719,12 @@
       <c r="H612" t="inlineStr"/>
       <c r="I612" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26079,12 +26079,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26199,12 +26199,12 @@
       <c r="H624" t="inlineStr"/>
       <c r="I624" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26717,12 +26717,12 @@
       <c r="H637" t="inlineStr"/>
       <c r="I637" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26797,12 +26797,12 @@
       </c>
       <c r="I639" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J639" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27037,12 +27037,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
